--- a/Expression_analysis/Correlation/PrecursorAGAINSTtarget/Correlation.xlsx
+++ b/Expression_analysis/Correlation/PrecursorAGAINSTtarget/Correlation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thomas/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thomas/GitHub/File-transfer/Expression_analysis/Correlation/PrecursorAGAINSTtarget/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-31420" yWindow="1860" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pearson" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13233" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13233" uniqueCount="325">
   <si>
     <t>osa-miR162a</t>
   </si>
@@ -1176,10 +1176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sample set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>27DAF_seedling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1187,12 +1183,20 @@
     <t>AllSample</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Sample set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassifyFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1218,11 +1222,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
-    <font>
-      <sz val="18.899999999999999"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1238,7 +1237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1272,18 +1271,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -42182,8 +42248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1469"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42194,9 +42260,10 @@
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -42218,13 +42285,13 @@
       <c r="G1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>240</v>
+      <c r="H1" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="K1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>320</v>
       </c>
     </row>
@@ -42254,10 +42321,10 @@
         <f>IF(ROW(B2)=2,1,IF(B2=B1,H1,1-H1))</f>
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="9">
         <v>45</v>
       </c>
     </row>
@@ -42287,14 +42354,14 @@
         <f t="shared" ref="H3:H66" si="0">IF(ROW(B3)=2,1,IF(B3=B2,H2,1-H2))</f>
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>322</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="K3" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -42320,10 +42387,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="K4" s="11">
         <v>143</v>
       </c>
     </row>
